--- a/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3856F4E0-C00F-44CE-8983-473149624257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE24CC1-649D-4FE5-A413-29861B60E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="15360" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="4180" windowWidth="19200" windowHeight="8073" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -153,219 +153,6 @@
   </si>
   <si>
     <t>Dev6/ai3</t>
-  </si>
-  <si>
-    <t>REED-N2-02</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line10</t>
-  </si>
-  <si>
-    <t>PT-FU-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai0</t>
-  </si>
-  <si>
-    <t>PoundsPerSquareInch</t>
-  </si>
-  <si>
-    <t>Differential</t>
-  </si>
-  <si>
-    <t>AI 01</t>
-  </si>
-  <si>
-    <t>PT-HE-01</t>
-  </si>
-  <si>
-    <t>Dev5/ai1</t>
-  </si>
-  <si>
-    <t>AI 02</t>
-  </si>
-  <si>
-    <t>PT-OX-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai2</t>
-  </si>
-  <si>
-    <t>AI 03</t>
-  </si>
-  <si>
-    <t>PT-N2-01</t>
-  </si>
-  <si>
-    <t>Dev5/ai3</t>
-  </si>
-  <si>
-    <t>AI 04</t>
-  </si>
-  <si>
-    <t>PT-FU-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai4</t>
-  </si>
-  <si>
-    <t>AI 05</t>
-  </si>
-  <si>
-    <t>PT-OX-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai5</t>
-  </si>
-  <si>
-    <t>AI 06</t>
-  </si>
-  <si>
-    <t>TC-OX-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai6</t>
-  </si>
-  <si>
-    <t>DegF</t>
-  </si>
-  <si>
-    <t>AI 07</t>
-  </si>
-  <si>
-    <t>TC-FU-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai7</t>
-  </si>
-  <si>
-    <t>AI 09</t>
-  </si>
-  <si>
-    <t>TC-OX-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai16</t>
-  </si>
-  <si>
-    <t>AI 10</t>
-  </si>
-  <si>
-    <t>TC-FU-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai17</t>
-  </si>
-  <si>
-    <t>AI 11</t>
-  </si>
-  <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>Dev5/ai18</t>
-  </si>
-  <si>
-    <t>Pounds</t>
-  </si>
-  <si>
-    <t>PT-FU-202</t>
-  </si>
-  <si>
-    <t>Dev5/ai19</t>
-  </si>
-  <si>
-    <t>PT-OX-202</t>
-  </si>
-  <si>
-    <t>Dev5/ai20</t>
-  </si>
-  <si>
-    <t>RTD-FU</t>
-  </si>
-  <si>
-    <t>Dev5/ai23</t>
-  </si>
-  <si>
-    <t>Volts</t>
-  </si>
-  <si>
-    <t>RTD-OX</t>
-  </si>
-  <si>
-    <t>Dev5/ai22</t>
-  </si>
-  <si>
-    <t>PT-HE-201</t>
-  </si>
-  <si>
-    <t>Dev5/ai21</t>
-  </si>
-  <si>
-    <t>PI-HE-01</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line0</t>
-  </si>
-  <si>
-    <t>PI-FU-02</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line1</t>
-  </si>
-  <si>
-    <t>PI-OX-02</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line2</t>
-  </si>
-  <si>
-    <t>PI-FU-03</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line3</t>
-  </si>
-  <si>
-    <t>PI-OX-03</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line4</t>
-  </si>
-  <si>
-    <t>REED-BP-01</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line5</t>
-  </si>
-  <si>
-    <t>DI-6</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line6</t>
-  </si>
-  <si>
-    <t>REED-OX-MAROTTA</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line7</t>
-  </si>
-  <si>
-    <t>REED-FU-MAROTTA</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line8</t>
-  </si>
-  <si>
-    <t>DI-9</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line9</t>
-  </si>
-  <si>
-    <t>DI-11</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line11</t>
   </si>
 </sst>
 </file>
@@ -988,9 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1055,160 +842,68 @@
       <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="14">
-        <v>200.37327437222999</v>
-      </c>
-      <c r="G2" s="14">
-        <v>12.291243059290499</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>10</v>
-      </c>
-      <c r="J2" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="L2" s="13"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="14">
-        <v>745.82606653800997</v>
-      </c>
-      <c r="G3" s="14">
-        <v>22.7128261926646</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>10</v>
-      </c>
-      <c r="J3" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="L3" s="13"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="14">
-        <v>200.175466825206</v>
-      </c>
-      <c r="G4" s="14">
-        <v>11.588304478036701</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>10</v>
-      </c>
-      <c r="J4" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="L4" s="13"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1236.7131475156</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43.952093327152497</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>10</v>
-      </c>
-      <c r="J5" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="L5" s="13"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -1216,448 +911,185 @@
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="14">
-        <v>200.37327437222999</v>
-      </c>
-      <c r="G6" s="15">
-        <v>12.291243059290499</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>10</v>
-      </c>
-      <c r="J6" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="L6" s="13"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="14">
-        <v>200.41525784486899</v>
-      </c>
-      <c r="G7" s="15">
-        <v>12.215664431090101</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G8" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2</v>
-      </c>
-      <c r="I8" s="15">
-        <v>10</v>
-      </c>
-      <c r="J8" s="15">
-        <v>52</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H9" s="15">
-        <v>2</v>
-      </c>
-      <c r="I9" s="15">
-        <v>10</v>
-      </c>
-      <c r="J9" s="15">
-        <v>52</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G10" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H10" s="15">
-        <v>2</v>
-      </c>
-      <c r="I10" s="15">
-        <v>10</v>
-      </c>
-      <c r="J10" s="15">
-        <v>52</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H11" s="15">
-        <v>2</v>
-      </c>
-      <c r="I11" s="15">
-        <v>10</v>
-      </c>
-      <c r="J11" s="15">
-        <v>52</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="14">
-        <v>104.642</v>
-      </c>
-      <c r="G12" s="14">
-        <v>-154.226</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>10</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2">
-        <v>299.727093171143</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-5.2730520568402</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>10</v>
-      </c>
-      <c r="J13" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2">
-        <v>300.40325697386402</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.0020088120354602</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>10</v>
-      </c>
-      <c r="J14" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>5</v>
-      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>5</v>
-      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="14">
-        <v>499.70649495375898</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-3.51061102707081</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>10</v>
-      </c>
-      <c r="J17" s="15">
-        <v>14.9</v>
-      </c>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
@@ -2515,11 +1947,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2565,136 +1997,7 @@
       <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE24CC1-649D-4FE5-A413-29861B60E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506ECFF5-4A19-4FEB-BC1D-71D42BD8C8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="4180" windowWidth="19200" windowHeight="8073" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -153,6 +153,21 @@
   </si>
   <si>
     <t>Dev6/ai3</t>
+  </si>
+  <si>
+    <t>Dev5/ai17</t>
+  </si>
+  <si>
+    <t>Differential</t>
+  </si>
+  <si>
+    <t>AI 11</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>DegF</t>
   </si>
 </sst>
 </file>
@@ -775,9 +790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:M28"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -842,17 +857,40 @@
       <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="14">
+        <v>39.6</v>
+      </c>
+      <c r="G2" s="15">
+        <v>-292</v>
+      </c>
+      <c r="H2" s="15">
+        <v>2</v>
+      </c>
+      <c r="I2" s="15">
+        <v>10</v>
+      </c>
+      <c r="J2" s="15">
+        <v>74</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>

--- a/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3856F4E0-C00F-44CE-8983-473149624257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE066791-2AB9-4185-86AA-4E6C5655DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="15360" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="8213" windowWidth="12733" windowHeight="7720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -159,213 +159,6 @@
   </si>
   <si>
     <t>Dev5/port0/line10</t>
-  </si>
-  <si>
-    <t>PT-FU-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai0</t>
-  </si>
-  <si>
-    <t>PoundsPerSquareInch</t>
-  </si>
-  <si>
-    <t>Differential</t>
-  </si>
-  <si>
-    <t>AI 01</t>
-  </si>
-  <si>
-    <t>PT-HE-01</t>
-  </si>
-  <si>
-    <t>Dev5/ai1</t>
-  </si>
-  <si>
-    <t>AI 02</t>
-  </si>
-  <si>
-    <t>PT-OX-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai2</t>
-  </si>
-  <si>
-    <t>AI 03</t>
-  </si>
-  <si>
-    <t>PT-N2-01</t>
-  </si>
-  <si>
-    <t>Dev5/ai3</t>
-  </si>
-  <si>
-    <t>AI 04</t>
-  </si>
-  <si>
-    <t>PT-FU-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai4</t>
-  </si>
-  <si>
-    <t>AI 05</t>
-  </si>
-  <si>
-    <t>PT-OX-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai5</t>
-  </si>
-  <si>
-    <t>AI 06</t>
-  </si>
-  <si>
-    <t>TC-OX-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai6</t>
-  </si>
-  <si>
-    <t>DegF</t>
-  </si>
-  <si>
-    <t>AI 07</t>
-  </si>
-  <si>
-    <t>TC-FU-04</t>
-  </si>
-  <si>
-    <t>Dev5/ai7</t>
-  </si>
-  <si>
-    <t>AI 09</t>
-  </si>
-  <si>
-    <t>TC-OX-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai16</t>
-  </si>
-  <si>
-    <t>AI 10</t>
-  </si>
-  <si>
-    <t>TC-FU-02</t>
-  </si>
-  <si>
-    <t>Dev5/ai17</t>
-  </si>
-  <si>
-    <t>AI 11</t>
-  </si>
-  <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>Dev5/ai18</t>
-  </si>
-  <si>
-    <t>Pounds</t>
-  </si>
-  <si>
-    <t>PT-FU-202</t>
-  </si>
-  <si>
-    <t>Dev5/ai19</t>
-  </si>
-  <si>
-    <t>PT-OX-202</t>
-  </si>
-  <si>
-    <t>Dev5/ai20</t>
-  </si>
-  <si>
-    <t>RTD-FU</t>
-  </si>
-  <si>
-    <t>Dev5/ai23</t>
-  </si>
-  <si>
-    <t>Volts</t>
-  </si>
-  <si>
-    <t>RTD-OX</t>
-  </si>
-  <si>
-    <t>Dev5/ai22</t>
-  </si>
-  <si>
-    <t>PT-HE-201</t>
-  </si>
-  <si>
-    <t>Dev5/ai21</t>
-  </si>
-  <si>
-    <t>PI-HE-01</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line0</t>
-  </si>
-  <si>
-    <t>PI-FU-02</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line1</t>
-  </si>
-  <si>
-    <t>PI-OX-02</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line2</t>
-  </si>
-  <si>
-    <t>PI-FU-03</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line3</t>
-  </si>
-  <si>
-    <t>PI-OX-03</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line4</t>
-  </si>
-  <si>
-    <t>REED-BP-01</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line5</t>
-  </si>
-  <si>
-    <t>DI-6</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line6</t>
-  </si>
-  <si>
-    <t>REED-OX-MAROTTA</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line7</t>
-  </si>
-  <si>
-    <t>REED-FU-MAROTTA</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line8</t>
-  </si>
-  <si>
-    <t>DI-9</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line9</t>
-  </si>
-  <si>
-    <t>DI-11</t>
-  </si>
-  <si>
-    <t>Dev5/port0/line11</t>
   </si>
 </sst>
 </file>
@@ -986,11 +779,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1055,623 +848,251 @@
       <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="14">
-        <v>200.37327437222999</v>
-      </c>
-      <c r="G2" s="14">
-        <v>12.291243059290499</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>10</v>
-      </c>
-      <c r="J2" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="14">
-        <v>745.82606653800997</v>
-      </c>
-      <c r="G3" s="14">
-        <v>22.7128261926646</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>10</v>
-      </c>
-      <c r="J3" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="14">
-        <v>200.175466825206</v>
-      </c>
-      <c r="G4" s="14">
-        <v>11.588304478036701</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>10</v>
-      </c>
-      <c r="J4" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="L4" s="13"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1236.7131475156</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43.952093327152497</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>10</v>
-      </c>
-      <c r="J5" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="14">
-        <v>200.37327437222999</v>
-      </c>
-      <c r="G6" s="15">
-        <v>12.291243059290499</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>10</v>
-      </c>
-      <c r="J6" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="14">
-        <v>200.41525784486899</v>
-      </c>
-      <c r="G7" s="15">
-        <v>12.215664431090101</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G8" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2</v>
-      </c>
-      <c r="I8" s="15">
-        <v>10</v>
-      </c>
-      <c r="J8" s="15">
-        <v>52</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H9" s="15">
-        <v>2</v>
-      </c>
-      <c r="I9" s="15">
-        <v>10</v>
-      </c>
-      <c r="J9" s="15">
-        <v>52</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G10" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H10" s="15">
-        <v>2</v>
-      </c>
-      <c r="I10" s="15">
-        <v>10</v>
-      </c>
-      <c r="J10" s="15">
-        <v>52</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="14">
-        <v>39.6</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-292</v>
-      </c>
-      <c r="H11" s="15">
-        <v>2</v>
-      </c>
-      <c r="I11" s="15">
-        <v>10</v>
-      </c>
-      <c r="J11" s="15">
-        <v>52</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="14">
-        <v>104.642</v>
-      </c>
-      <c r="G12" s="14">
-        <v>-154.226</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>10</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2">
-        <v>299.727093171143</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-5.2730520568402</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>10</v>
-      </c>
-      <c r="J13" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2">
-        <v>300.40325697386402</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.0020088120354602</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>10</v>
-      </c>
-      <c r="J14" s="14">
-        <v>14.9</v>
-      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>5</v>
-      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>5</v>
-      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="14">
-        <v>499.70649495375898</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-3.51061102707081</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>10</v>
-      </c>
-      <c r="J17" s="15">
-        <v>14.9</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E291 E5:E16" xr:uid="{67840EE5-05F5-4436-AF7F-E260182F0B8F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E290 E4:E15" xr:uid="{67840EE5-05F5-4436-AF7F-E260182F0B8F}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C291 C5:C16" xr:uid="{043F2C2B-20BE-4C77-94C8-7FB1F84C381D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C290 C4:C15" xr:uid="{043F2C2B-20BE-4C77-94C8-7FB1F84C381D}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2515,11 +1936,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2566,133 +1987,12 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2700,11 +2000,6 @@
   <mergeCells count="1">
     <mergeCell ref="E1:U1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{AF5BE386-2AA9-4C7A-9DDB-AE759445EAD9}">
-      <formula1>"no,yes"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Data_Test_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506ECFF5-4A19-4FEB-BC1D-71D42BD8C8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01A24D-2FB1-4271-BA6F-478444311FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="8213" windowWidth="12733" windowHeight="7720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -792,7 +792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -879,7 +879,7 @@
         <v>-292</v>
       </c>
       <c r="H2" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="15">
         <v>10</v>
